--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>0.063261</v>
       </c>
       <c r="I2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>0.5746293816119999</v>
+        <v>0.561007882512</v>
       </c>
       <c r="R2">
-        <v>5.171664434508</v>
+        <v>5.049070942608</v>
       </c>
       <c r="S2">
-        <v>0.05415639285989978</v>
+        <v>0.01335466020268813</v>
       </c>
       <c r="T2">
-        <v>0.05415639285989977</v>
+        <v>0.01335466020268813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.063261</v>
       </c>
       <c r="I3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>0.2958817836149999</v>
+        <v>0.295881783615</v>
       </c>
       <c r="R3">
         <v>2.662936052535</v>
       </c>
       <c r="S3">
-        <v>0.02788560875288033</v>
+        <v>0.007043396008360186</v>
       </c>
       <c r="T3">
-        <v>0.02788560875288032</v>
+        <v>0.007043396008360187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +667,40 @@
         <v>0.063261</v>
       </c>
       <c r="I4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.007895359394999999</v>
+        <v>0.004264051473</v>
       </c>
       <c r="R4">
-        <v>0.07105823455499999</v>
+        <v>0.038376463257</v>
       </c>
       <c r="S4">
-        <v>0.0007441042850371217</v>
+        <v>0.0001015047386744494</v>
       </c>
       <c r="T4">
-        <v>0.0007441042850371216</v>
+        <v>0.0001015047386744494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +729,10 @@
         <v>0.063261</v>
       </c>
       <c r="I5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>0.379757723004</v>
+        <v>0.116855023329</v>
       </c>
       <c r="R5">
-        <v>3.417819507036</v>
+        <v>1.051695209961</v>
       </c>
       <c r="S5">
-        <v>0.03579056187640673</v>
+        <v>0.002781706243677616</v>
       </c>
       <c r="T5">
-        <v>0.03579056187640673</v>
+        <v>0.002781706243677617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.021087</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H6">
-        <v>0.063261</v>
+        <v>2.653988</v>
       </c>
       <c r="I6">
-        <v>0.1188591505631911</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J6">
-        <v>0.1188591505631911</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>0.002997299150999999</v>
+        <v>23.53595719467378</v>
       </c>
       <c r="R6">
-        <v>0.026975692359</v>
+        <v>211.823614752064</v>
       </c>
       <c r="S6">
-        <v>0.000282482788967104</v>
+        <v>0.5602679047440265</v>
       </c>
       <c r="T6">
-        <v>0.0002824827889671039</v>
+        <v>0.5602679047440267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H7">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I7">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J7">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>4.259911155563556</v>
+        <v>12.41312503964222</v>
       </c>
       <c r="R7">
-        <v>38.339200400072</v>
+        <v>111.71812535678</v>
       </c>
       <c r="S7">
-        <v>0.4014786390521592</v>
+        <v>0.2954915111274851</v>
       </c>
       <c r="T7">
-        <v>0.4014786390521591</v>
+        <v>0.2954915111274851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8846626666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.653988</v>
+      </c>
+      <c r="I8">
+        <v>0.9767187328065996</v>
+      </c>
+      <c r="J8">
+        <v>0.9767187328065997</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.1563246666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.468974</v>
-      </c>
-      <c r="I8">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="J8">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>2.193466173298889</v>
+        <v>0.1788897020395556</v>
       </c>
       <c r="R8">
-        <v>19.74119555969</v>
+        <v>1.610007318356</v>
       </c>
       <c r="S8">
-        <v>0.2067249249817945</v>
+        <v>0.004258427125482125</v>
       </c>
       <c r="T8">
-        <v>0.2067249249817944</v>
+        <v>0.004258427125482125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +962,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H9">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,152 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>0.05853082115222222</v>
+        <v>4.902417439732001</v>
       </c>
       <c r="R9">
-        <v>0.5267773903699999</v>
+        <v>44.121756957588</v>
       </c>
       <c r="S9">
-        <v>0.005516282748786758</v>
+        <v>0.1167008898096058</v>
       </c>
       <c r="T9">
-        <v>0.005516282748786758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1563246666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.468974</v>
-      </c>
-      <c r="I10">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="J10">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.009092</v>
-      </c>
-      <c r="N10">
-        <v>54.027276</v>
-      </c>
-      <c r="O10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q10">
-        <v>2.815265303869333</v>
-      </c>
-      <c r="R10">
-        <v>25.337387734824</v>
-      </c>
-      <c r="S10">
-        <v>0.2653268675080377</v>
-      </c>
-      <c r="T10">
-        <v>0.2653268675080377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1563246666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.468974</v>
-      </c>
-      <c r="I11">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="J11">
-        <v>0.8811408494368089</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q11">
-        <v>0.02221993601177777</v>
-      </c>
-      <c r="R11">
-        <v>0.199979424106</v>
-      </c>
-      <c r="S11">
-        <v>0.002094135146030866</v>
-      </c>
-      <c r="T11">
-        <v>0.002094135146030866</v>
+        <v>0.1167008898096058</v>
       </c>
     </row>
   </sheetData>
